--- a/analyse/auswertung_TIFFCompression.xlsx
+++ b/analyse/auswertung_TIFFCompression.xlsx
@@ -14,34 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">Compression:1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compression:2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compression:3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compression:4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compression:5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compression:6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compression:7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compression:8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compression:9 </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Basel-Stadt\log-tap-stabs-tiffhist</t>
   </si>
@@ -62,6 +35,42 @@
   </si>
   <si>
     <t>in Prozent</t>
+  </si>
+  <si>
+    <t>Compression:3 (Fax Group 3)</t>
+  </si>
+  <si>
+    <t>Compression:2 (CCIT 1D)</t>
+  </si>
+  <si>
+    <t>Compression:1 (none)</t>
+  </si>
+  <si>
+    <t>Compression:4 (Fax Group 4)</t>
+  </si>
+  <si>
+    <t>Compression:5 (LZW)</t>
+  </si>
+  <si>
+    <t>Compression:6 (old JPEG)</t>
+  </si>
+  <si>
+    <t>Compression:7 (JPEG)</t>
+  </si>
+  <si>
+    <t>Compression:8 (Adobe Deflate)</t>
+  </si>
+  <si>
+    <t>Compression:10 (JBIG color)</t>
+  </si>
+  <si>
+    <t>Compression:9 (JBIG bw)</t>
+  </si>
+  <si>
+    <t>Compression:32773 (Pack Bits)</t>
+  </si>
+  <si>
+    <t>Compression:&gt;32776 (none)</t>
   </si>
 </sst>
 </file>
@@ -291,17 +300,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -349,6 +349,18 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -654,294 +666,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" s="20" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>732696</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="2">
         <v>560956</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <v>217843</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>550675</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <f>SUM(B2:E2)</f>
         <v>2062170</v>
       </c>
-      <c r="G2" s="7">
-        <f>F2/$F$11</f>
+      <c r="G2" s="4">
+        <f>F2/$F$14</f>
         <v>0.51811819507727797</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
         <v>564</v>
       </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <f t="shared" ref="F3:F11" si="0">SUM(B3:E3)</f>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F14" si="0">SUM(B3:E3)</f>
         <v>564</v>
       </c>
-      <c r="G3" s="11">
-        <f>F3/$F$11</f>
+      <c r="G3" s="8">
+        <f>F3/$F$14</f>
         <v>1.4170444823830467E-4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
         <v>20041</v>
       </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
         <f t="shared" si="0"/>
         <v>20041</v>
       </c>
-      <c r="G4" s="15">
-        <f>F4/$F$11</f>
+      <c r="G4" s="12">
+        <f>F4/$F$14</f>
         <v>5.0352816438720988E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6">
         <v>22745</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>602571</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>1207376</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>317</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>1833009</v>
       </c>
-      <c r="G5" s="11">
-        <f t="shared" ref="G5:G11" si="1">F5/$F$11</f>
+      <c r="G5" s="8">
+        <f t="shared" ref="G5:G14" si="1">F5/$F$14</f>
         <v>0.4605417180156855</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10">
         <v>31</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>19534</v>
       </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
         <v>15651</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <f t="shared" si="0"/>
         <v>35216</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <f t="shared" si="1"/>
         <v>8.8479855481562713E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
         <v>12095</v>
       </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
         <v>15427</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11">
         <f t="shared" si="0"/>
         <v>27522</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="12">
         <f t="shared" si="1"/>
         <v>6.9148755752032288E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
         <v>1593</v>
       </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>1593</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="8">
         <f t="shared" si="1"/>
         <v>4.0023969156670097E-4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14">
+      <c r="A10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" ref="F10:F11" si="2">SUM(B10:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" ref="G10:G11" si="3">F10/$F$14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" ref="F12" si="4">SUM(B12:E12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" ref="G12" si="5">F12/$F$14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G13" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="17">
-        <f>SUM(B2:B10)</f>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="14">
+        <f>SUM(B2:B13)</f>
         <v>755472</v>
       </c>
-      <c r="C11" s="17">
-        <f>SUM(C2:C10)</f>
+      <c r="C14" s="14">
+        <f>SUM(C2:C13)</f>
         <v>1217354</v>
       </c>
-      <c r="D11" s="17">
-        <f>SUM(D2:D10)</f>
+      <c r="D14" s="14">
+        <f>SUM(D2:D13)</f>
         <v>1425219</v>
       </c>
-      <c r="E11" s="17">
-        <f>SUM(E2:E10)</f>
+      <c r="E14" s="14">
+        <f>SUM(E2:E13)</f>
         <v>582070</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F14" s="15">
         <f t="shared" si="0"/>
         <v>3980115</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G14" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
